--- a/Documentation/Tests/Protocol_Test_.xlsx
+++ b/Documentation/Tests/Protocol_Test_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puipp\Desktop\TB_PLCSoft_Wago\Documentation\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB9F99A-D426-4892-BE89-93A235357A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8A7F5B-4BF4-4826-93EB-3B96BB4B678F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5F293C73-6E4E-4453-9E7D-AAEFE8A3437D}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Description des test</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t xml:space="preserve">Résultat attendu </t>
   </si>
@@ -59,22 +56,7 @@
     <t>N° test</t>
   </si>
   <si>
-    <t>Vérifier fonctionnement Inputs manquantes</t>
-  </si>
-  <si>
-    <t>Vérifier fonctionnement Outputs manquantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vérifier fonctionnement Inputs Values : test1  ,, test2 autorisées </t>
-  </si>
-  <si>
-    <t>Vérifier fonctionnement Normal :</t>
-  </si>
-  <si>
     <t>Test bloc général</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vérifier fonctionnement Inputs Values : 1  ,, 4 autorisées </t>
   </si>
   <si>
     <t>Aucun Ralentissement : faire clignoter led et ralentir les connection (ressources introuvables, couper connection, etc.)</t>
@@ -167,12 +149,172 @@
       <t xml:space="preserve"> : Couper communication + Valeurs inattendues</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vérifier fonctionnement </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inputs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Values : 1  ,, 4 autorisées </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vérifier fonctionnement </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inputs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Values : test1  ,, test2 autorisées </t>
+    </r>
+  </si>
+  <si>
+    <t>Vérifier fonctionnement  Outputs manquantes</t>
+  </si>
+  <si>
+    <t>Il faut toujours qu'on moins une output du bloc soit relié pour que le bloc soit Build</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vérifier fonctionnement </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inputs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> manquantes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vérifier fonctionnement </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inputs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> changement dynamiques</t>
+    </r>
+  </si>
+  <si>
+    <t>Vérifier paramètres manquants</t>
+  </si>
+  <si>
+    <t>Vérifier paramètres incorrectes</t>
+  </si>
+  <si>
+    <t>Vérifier fonctionnement Normal : Outputs se mettent à jour selon les inputs comme convenu</t>
+  </si>
+  <si>
+    <t>Vérifier fonctionnement  Outputs s'initialise correctement</t>
+  </si>
+  <si>
+    <t>Vérifier Outputs se mettent à jour correctement</t>
+  </si>
+  <si>
+    <t>Vérifier paramètres correctes</t>
+  </si>
+  <si>
+    <t>Test Vue Programmation</t>
+  </si>
+  <si>
+    <t>Les nodes se relie correctement</t>
+  </si>
+  <si>
+    <t>Les nodes apparaissent correctement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save : les nodes sont sauvegarder avec tous leurs paramètres </t>
+  </si>
+  <si>
+    <t>Restore : les nodes apparaissent comme ils ont été save</t>
+  </si>
+  <si>
+    <t>Save as : comme save</t>
+  </si>
+  <si>
+    <t>Open file : comme Restore</t>
+  </si>
+  <si>
+    <t>Changement de couleur des connections</t>
+  </si>
+  <si>
+    <t>Changement de node correct si style menu déroulant</t>
+  </si>
+  <si>
+    <t>Tools : Add comment</t>
+  </si>
+  <si>
+    <t>Tools : Display Connection (debug)</t>
+  </si>
+  <si>
+    <t>Description des tests</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +326,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -523,6 +672,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -531,9 +683,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -875,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139C27BE-EB26-470B-A792-BB956DE485E5}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,36 +1041,36 @@
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>11</v>
       </c>
       <c r="B3" s="15">
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -929,55 +1078,53 @@
       <c r="G3" s="4"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="16">
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="16">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="16">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="15">
-        <v>4</v>
-      </c>
       <c r="C6" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+      <c r="H6" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
       <c r="B7" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -985,13 +1132,11 @@
       <c r="G7" s="5"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="16">
-        <v>6</v>
-      </c>
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -999,95 +1144,125 @@
       <c r="G8" s="5"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="23"/>
+    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="15">
+        <v>4</v>
+      </c>
       <c r="C9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
+        <v>11</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="16">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="16">
+        <v>6</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+      <c r="B16" s="15">
         <v>7</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="16">
+      <c r="C16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="16">
         <v>8</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -1095,7 +1270,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -1103,7 +1278,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -1111,7 +1286,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -1119,7 +1294,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
@@ -1127,7 +1302,7 @@
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
@@ -1135,41 +1310,265 @@
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="15">
+        <v>1</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="22"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
+      <c r="B32" s="16">
+        <v>2</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="22"/>
+      <c r="B33" s="16">
+        <v>3</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="22"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="22"/>
+      <c r="B35" s="15">
+        <v>4</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="22"/>
+      <c r="B36" s="16">
+        <v>5</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="22"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="22"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="22"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="22"/>
+      <c r="B40" s="16">
+        <v>6</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="22"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="22"/>
+      <c r="B42" s="15">
+        <v>7</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="23"/>
+      <c r="B43" s="16">
+        <v>8</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:A11"/>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A17"/>
+    <mergeCell ref="A25:A43"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
